--- a/precios-final.xlsx
+++ b/precios-final.xlsx
@@ -451,177 +451,129 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bottega Gold 750ml</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bottega Gold</t>
+          <t>Bulleir Bourbon</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bottega Gold White 750ml</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7500</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bottega gold White</t>
+          <t>J.W. Red Label 750ml</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bottega Gold Rose 750ml</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bottega Gold Rose</t>
+          <t>J.W. Red Label 1L</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bottega Gold Petalo 750ml</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bottega Petalo</t>
+          <t>J.W. Black Label 750ml</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Moet Imperial Brut 750ml</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Moet Imperial</t>
+          <t>J.W. Black Label 1L</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Moet Imperial Twin Pack 750ml (2 unidades)</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Moet Imperial Twin pack (2u)</t>
+          <t>J.W. Double Black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Moet Imperial Rose 750ml</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9800</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Moet Imperial Rose</t>
+          <t>J.W. Gold Label</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Moet Nectar Imperial 750ml</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23000</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Moet Nectar Imperial</t>
+          <t>J.W. Green Label</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Moet Nectar Rose 750ml</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>26000</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Moet Nectar Rose</t>
+          <t>J.W. Island Green Label</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Moet Imperial Brut 750ml</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23500</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Moet ice imperial</t>
+          <t>J.W. 18 aos</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Moet Imperial Ice Rose 750ml</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>31000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Moet Ice Rose</t>
+          <t>J.W. Blue Label</t>
         </is>
       </c>
     </row>
@@ -630,7 +582,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pommery</t>
+          <t>J.W. XR 21</t>
         </is>
       </c>
     </row>
@@ -638,39 +590,51 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24000</t>
+          <t>14200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pommery twin pack (2u)</t>
+          <t>The Balvenie clasic</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22800</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pommery Grand Cru</t>
+          <t>The Balvenie 12aos</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8800</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pommery Brut Rose</t>
+          <t>Talisker</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26000</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pommery Blue Sky</t>
+          <t>Talisker Dark Storm</t>
         </is>
       </c>
     </row>
@@ -679,16 +643,20 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Veuve Clicquot Brut</t>
+          <t>J.W. White Walker</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9600</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Veuve Clicquot Rose</t>
+          <t>J.W. A song of fire</t>
         </is>
       </c>
     </row>
@@ -697,7 +665,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Veuve Clicquot Brut twin pack (2u)</t>
+          <t>J.W. A song of ice</t>
         </is>
       </c>
     </row>
@@ -706,33 +674,25 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Veuve Clicquot Rich</t>
+          <t>Cragganmore 12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>102000</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dom Perignon Vintage1999</t>
+          <t>Jack Daniels x 1 litro Honey</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>92000</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dom Perignon 2000</t>
+          <t>Jack Daniels x 1 litro Fire</t>
         </is>
       </c>
     </row>
@@ -740,12 +700,12 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>10600</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dom Perignon 2003</t>
+          <t>Jack Daniels x 1 litro Rye</t>
         </is>
       </c>
     </row>
@@ -753,21 +713,25 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58000</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dom Perignon 2008</t>
+          <t>Jack Daniels x 1 litro Gentleman Jack x1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11900</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dom Perignon 2010</t>
+          <t>Jack Daniels x 1 litro 100 Proof x1</t>
         </is>
       </c>
     </row>
@@ -776,37 +740,25 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dom Perignon 2012</t>
+          <t>Jack Daniels x 1 litro Gold N27</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Champagne Cristal 2014</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>99000</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Champagne Cristal 2014</t>
+          <t>Jack Daniels x 1 litro Sinatra Select</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>9800</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Patrón silver</t>
+          <t>The Macallan Rare Cask  (a pedido)</t>
         </is>
       </c>
     </row>
@@ -815,7 +767,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Patrón reposaso</t>
+          <t>Jack Daniels  750ml N7</t>
         </is>
       </c>
     </row>
@@ -824,7 +776,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Absolut 1 litro</t>
+          <t>Jack Daniels  750ml Fire</t>
         </is>
       </c>
     </row>
@@ -833,16 +785,20 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Clasico x 1 LITRO</t>
+          <t>Ballantines 12 1litro</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13300</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Berri Acai</t>
+          <t>Ballantines 17</t>
         </is>
       </c>
     </row>
@@ -850,34 +806,34 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kurant</t>
+          <t>Aberfeldy 12 1 litro</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Peppar</t>
+          <t>Aberfeldy 16 1 litro</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>5800</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Buchanans 18</t>
         </is>
       </c>
     </row>
@@ -885,12 +841,12 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>100 Proof</t>
+          <t>Longmorn</t>
         </is>
       </c>
     </row>
@@ -899,7 +855,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Grey Goose x 1 litro</t>
+          <t>Jack Daniels  750ml Honey</t>
         </is>
       </c>
     </row>
@@ -907,12 +863,12 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>6600</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Clasico</t>
+          <t>Jack Daniels x 1 litro N7</t>
         </is>
       </c>
     </row>
@@ -920,21 +876,25 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8100</t>
+          <t>54500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Le Citron</t>
+          <t>The Macallan Enigma</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La Vanille</t>
+          <t>The Macallan Lumina</t>
         </is>
       </c>
     </row>
@@ -943,16 +903,20 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cherry Noir</t>
+          <t>Chivas Royal Salute 21 Polo Estancia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>47000</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>L’Orange</t>
+          <t>Chivas Royal Salute 25</t>
         </is>
       </c>
     </row>
@@ -961,16 +925,20 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La Poire</t>
+          <t>Glenlivet 15 aos</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Grey Goose Ducasse estuche de madera</t>
+          <t>Glenlivet 18 aos</t>
         </is>
       </c>
     </row>
@@ -978,34 +946,34 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Grey Goose VX</t>
+          <t>Glenlivet Distellers Reserve</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16900</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ciroc</t>
+          <t>Glenlivet White Oak Triple Cask</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>7600</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Clasico</t>
+          <t>Glenlivet Rare Cask</t>
         </is>
       </c>
     </row>
@@ -1014,16 +982,20 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Peach</t>
+          <t>Glen Deveron 16 aos</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Red Berry</t>
+          <t>Highland Park Viking Pride</t>
         </is>
       </c>
     </row>
@@ -1032,38 +1004,42 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Highland Park Bear 1L</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>33000</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coconut</t>
+          <t>Highland Park Harald</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nuvo</t>
+          <t>Bowmore 10 Aston Martin</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>21500</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cristal Head Clásica 750ml</t>
+          <t>Bowmore 18  Aston Martin</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1048,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cristal Head Clásica 1 litro</t>
+          <t>Glenmorangie 10 aos</t>
         </is>
       </c>
     </row>
@@ -1080,12 +1056,12 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>25500</t>
+          <t>13600</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cristal Head Aurora 750 ml</t>
+          <t>Glenmorangie 12 aos</t>
         </is>
       </c>
     </row>
@@ -1093,47 +1069,43 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27000</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cristal Head Aurora 750 ml (traveller's exclusive)</t>
+          <t>Chivas Royal Salute 21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>26000</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cristal Head Pride 750 ml</t>
+          <t>Chivas Regal 25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>27000👽</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cristal Head Outer Space</t>
+          <t>Chivas Regal 18 + 2 vasos</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cristal Head Onix</t>
+          <t>Chivas 12 aos 1 litro</t>
         </is>
       </c>
     </row>
@@ -1141,25 +1113,21 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BAILEYS</t>
+          <t>The Macallan Quest 700ml</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BAILEYS CARAMEL</t>
+          <t>The Macallan Quest 1L x1</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1135,12 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>13600</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SHERIDANS</t>
+          <t>Glenfiddich Select Cask</t>
         </is>
       </c>
     </row>
@@ -1180,68 +1148,52 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>JAGER 750ml</t>
+          <t>Glenfiddich Reserve Cask</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JAGER 1 LT</t>
+          <t>Glenfiddich 15</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>8000</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JAGER COLD BREW COFFEE 1 litro</t>
+          <t>Glenfiddich 21</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gordons</t>
+          <t>Glenfiddich 23 Grand Cru</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Tanqueray 700ml</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tanqueray 700ml</t>
+          <t>The Macallan Terra</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1202,7 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tanqueray Ten 1L</t>
+          <t>The Dalmore</t>
         </is>
       </c>
     </row>
@@ -1259,20 +1211,16 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The Botanist 1L</t>
+          <t>The Trio</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1900</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Aconcagua Azul</t>
+          <t>Dewars 12</t>
         </is>
       </c>
     </row>
@@ -1280,38 +1228,30 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Aconcagua Blanco</t>
+          <t>Dewars 15  1L - estuche metalico dorado</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Aconcagua Verde</t>
+          <t>Dewars 18</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>14000</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hendrick’s Amazonia</t>
+          <t>Caol Ila 12</t>
         </is>
       </c>
     </row>
@@ -1324,42 +1264,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Woodford Reserve 1L</t>
+          <t>Cardhu 12</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Woodford Reserve Double Oaked 1L</t>
+          <t>Singleton 12</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>8900</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Woodford Maker’s Mark 1L</t>
+          <t>The Quartet</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>3950</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Old parr</t>
+          <t>Suntory whisky - Masters SelectHibiki silver</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1303,12 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bulleir Bourbon</t>
+          <t>The ChitaX1u</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1316,12 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6600</t>
+          <t>8900</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro N7</t>
+          <t>Woodford Makers Mark 1L</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1330,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro Honey</t>
+          <t>Cherry Noir</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1339,7 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro Fire</t>
+          <t>La Vanille</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1347,12 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10600</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro Rye</t>
+          <t>Le Citron</t>
         </is>
       </c>
     </row>
@@ -1424,43 +1360,47 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro Gentleman Jack x1</t>
+          <t>Old parr</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>11900</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro 100 Proof x1</t>
+          <t>Grey Goose x 1 litro</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5800</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro Gold N27</t>
+          <t>100 Proof</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5800</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jack Daniels x 1 litro Sinatra Select</t>
+          <t>Watermelon</t>
         </is>
       </c>
     </row>
@@ -1469,16 +1409,20 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jack Daniels  750ml N7</t>
+          <t>Peppar</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5800</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Jack Daniels  750ml Honey</t>
+          <t>Kurant</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1431,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Jack Daniels  750ml Fire</t>
+          <t>Berri Acai</t>
         </is>
       </c>
     </row>
@@ -1496,33 +1440,25 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ballantines 12 1litro</t>
+          <t>Clasico x 1 LITRO</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>13300</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ballantines 17</t>
+          <t>Absolut 1 litro</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>14900</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Aberfeldy 12 1 litro</t>
+          <t>Patrn reposaso</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1466,12 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Aberfeldy 16 1 litro</t>
+          <t>Patrn silver</t>
         </is>
       </c>
     </row>
@@ -1544,38 +1480,42 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Buchanan’s 18</t>
+          <t>Dom Perignon 2012</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>10800</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Longmorn</t>
+          <t>Dom Perignon 2010</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>58000</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cragganmore 12</t>
+          <t>Dom Perignon 2008</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>82000</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J.W. A song of ice</t>
+          <t>Dom Perignon 2003</t>
         </is>
       </c>
     </row>
@@ -1583,21 +1523,25 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>9600</t>
+          <t>92000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>J.W. A song of fire</t>
+          <t>Dom Perignon 2000</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>102000</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J.W. White Walker</t>
+          <t>Dom Perignon Vintage1999</t>
         </is>
       </c>
     </row>
@@ -1606,72 +1550,52 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J.W. Red Label 750ml</t>
+          <t>Veuve Clicquot Rich</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>3900</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>J.W. Red Label 1L</t>
+          <t>Veuve Clicquot Brut twin pack (2u)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>5100</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J.W. Black Label 750ml</t>
+          <t>Veuve Clicquot Rose</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>J.W. Black Label 1L</t>
+          <t>Veuve Clicquot Brut</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>6200</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J.W. Double Black</t>
+          <t>Pommery Blue Sky</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>9800</t>
-        </is>
-      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>J.W. Gold Label</t>
+          <t>Pommery Brut Rose</t>
         </is>
       </c>
     </row>
@@ -1680,16 +1604,20 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>J.W. Green Label</t>
+          <t>Pommery Grand Cru</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24000</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J.W. Island Green Label</t>
+          <t>Pommery twin pack (2u)</t>
         </is>
       </c>
     </row>
@@ -1698,20 +1626,16 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>J.W. 18 años</t>
+          <t>Pommery</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>31000</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J.W. Blue Label</t>
+          <t>LOrange</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1644,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>J.W. XR 21</t>
+          <t>La Poire</t>
         </is>
       </c>
     </row>
@@ -1728,12 +1652,12 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>14200</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>The Balvenie clasic</t>
+          <t>Clasico</t>
         </is>
       </c>
     </row>
@@ -1741,25 +1665,21 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>The Balvenie 12años</t>
+          <t>Grey Goose VX</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>8800</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Talisker</t>
+          <t>Woodford Reserve Double Oaked 1L</t>
         </is>
       </c>
     </row>
@@ -1767,21 +1687,25 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>26000</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Talisker Dark Storm</t>
+          <t>Woodford Reserve 1L</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>The Macallan Rare Cask  (a pedido)</t>
+          <t>Hendricks Amazonia</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1713,12 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>54500</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The Macallan Enigma</t>
+          <t>Aconcagua Verde</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1726,12 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>The Macallan Terra</t>
+          <t>Aconcagua Blanco</t>
         </is>
       </c>
     </row>
@@ -1815,25 +1739,21 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>The Macallan Lumina</t>
+          <t>Aconcagua Azul</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>15900</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The Macallan Quest 700ml</t>
+          <t>The Botanist 1L</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1762,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The Macallan Quest 1L x1</t>
+          <t>Tanqueray Ten 1L</t>
         </is>
       </c>
     </row>
@@ -1850,70 +1770,86 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>13600</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Glenfiddich Select Cask</t>
+          <t>Gordons</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>14800</t>
-        </is>
-      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Glenfiddich Reserve Cask</t>
+          <t>Grey Goose Ducasse estuche de madera</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Glenfiddich 15</t>
+          <t>JAGER 1 LT</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Glenfiddich 21</t>
+          <t>JAGER 750ml</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3900</t>
+        </is>
+      </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Glenfiddich 23 Grand Cru</t>
+          <t>SHERIDANS</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>The Dalmore</t>
+          <t>BAILEYS CARAMEL</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>The Quartet</t>
+          <t>JAGER COLD BREW COFFEE 1 litro</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1858,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>The Trio</t>
+          <t>Peach</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1867,7 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Dewar’s 12</t>
+          <t>Cristal Head Onix</t>
         </is>
       </c>
     </row>
@@ -1939,30 +1875,38 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>27000</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Dewar’s 15  1L - estuche metalico dorado</t>
+          <t>Cristal Head Outer Space</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>26000</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Dewar’s 18</t>
+          <t>Cristal Head Pride 750 ml</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>27000</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Caol Ila 12</t>
+          <t>Cristal Head Aurora 750 ml (traveller's exclusive)</t>
         </is>
       </c>
     </row>
@@ -1970,47 +1914,43 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10800</t>
+          <t>25500</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cardhu 12</t>
+          <t>Cristal Head Aurora 750 ml</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>6400</t>
-        </is>
-      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Singleton 12</t>
+          <t>Cristal Head Clsica 1 litro</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>5400</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Chivas 12 años 1 litro</t>
+          <t>Ciroc</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>21500</t>
+        </is>
+      </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Chivas Regal 18 + 2 vasos</t>
+          <t>Cristal Head Clsica 750ml</t>
         </is>
       </c>
     </row>
@@ -2019,20 +1959,16 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Chivas Regal 25</t>
+          <t>Nuvo</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Chivas Royal Salute 21</t>
+          <t>Coconut</t>
         </is>
       </c>
     </row>
@@ -2041,29 +1977,29 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chivas Royal Salute 21 Polo Estancia</t>
+          <t>Pineapple</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>47000</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Chivas Royal Salute 25</t>
+          <t>Red Berry</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Glenlivet 15 años</t>
+          <t>BAILEYS</t>
         </is>
       </c>
     </row>
@@ -2071,157 +2007,221 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Glenlivet 18 años</t>
+          <t>Clasico</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Bottega Gold 750ml</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Glenlivet Disteller’s Reserve</t>
+          <t>Bottega Gold</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>16900</t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Bottega Gold Petalo 750ml</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Glenlivet White Oak Triple Cask</t>
+          <t>Bottega Petalo</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
-      <c r="B146" t="inlineStr"/>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Bottega Gold Rose 750ml</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Glenlivet Rare Cask</t>
+          <t>Bottega Gold Rose</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr"/>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Bottega Gold White 750ml</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Glen Deveron 16 años</t>
+          <t>Bottega gold White</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Champagne Cristal 2014</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>51000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Highland Park Viking Pride</t>
+          <t>Champagne Cristal 2014</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Moet Imperial Brut 750ml</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>23500</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Highland Park Bear 1L</t>
+          <t>Moet ice imperial</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>33000</t>
-        </is>
-      </c>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Moet Imperial Brut 750ml</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Highland Park Harald</t>
+          <t>Moet Imperial</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Moet Imperial Ice Rose 750ml</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Bowmore 10 Aston Martin</t>
+          <t>Moet Ice Rose</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Moet Imperial Rose 750ml</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bowmore 18  Aston Martin</t>
+          <t>Moet Imperial Rose</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr"/>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Moet Imperial Twin Pack 750ml (2 unidades)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Glenmorangie 10 años</t>
+          <t>Moet Imperial Twin pack (2u)</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Moet Nectar Imperial 750ml</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>13600</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Glenmorangie 12 años</t>
+          <t>Moet Nectar Imperial</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Moet Nectar Rose 750ml</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>26000</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Suntory whisky - Master’s SelectHibiki silver</t>
+          <t>Moet Nectar Rose</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tanqueray 700ml</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>The ChitaX1u</t>
+          <t>Tanqueray 700ml</t>
         </is>
       </c>
     </row>
